--- a/CH4/Soil Inventory.xlsx
+++ b/CH4/Soil Inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="30">
   <si>
     <t>Site</t>
   </si>
@@ -114,9 +114,6 @@
   </si>
   <si>
     <t>Gavi-3</t>
-  </si>
-  <si>
-    <t>7/20/201</t>
   </si>
 </sst>
 </file>
@@ -446,13 +443,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1048575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="16" max="17" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1965,8 +1965,8 @@
       <c r="C76" t="s">
         <v>29</v>
       </c>
-      <c r="D76" t="s">
-        <v>30</v>
+      <c r="D76" s="2">
+        <v>44397</v>
       </c>
       <c r="E76">
         <v>1505</v>
